--- a/python/Inputs.xlsx
+++ b/python/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC (2)\Desktop\Projects\personalFinances\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49761B-9700-4A8A-9687-2B30FFA828C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83F1C4-2C00-4A85-8681-7FBCA9A0452F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,12 @@
     <sheet name="Vacation" sheetId="16" r:id="rId13"/>
     <sheet name="Major" sheetId="17" r:id="rId14"/>
     <sheet name="Random" sheetId="18" r:id="rId15"/>
-    <sheet name="Other" sheetId="19" r:id="rId16"/>
-    <sheet name="Accounts" sheetId="4" r:id="rId17"/>
-    <sheet name="Allocations" sheetId="2" r:id="rId18"/>
-    <sheet name="Earnings" sheetId="3" r:id="rId19"/>
+    <sheet name="Accounts" sheetId="4" r:id="rId16"/>
+    <sheet name="Allocations" sheetId="2" r:id="rId17"/>
+    <sheet name="Earnings" sheetId="3" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="191">
   <si>
     <t>BASIC</t>
   </si>
@@ -395,9 +394,6 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>INVESTING</t>
-  </si>
-  <si>
     <t>Down Payment</t>
   </si>
   <si>
@@ -621,6 +617,15 @@
   </si>
   <si>
     <t>Max Cost</t>
+  </si>
+  <si>
+    <t>INVEST</t>
+  </si>
+  <si>
+    <t>ROTH</t>
+  </si>
+  <si>
+    <t>TRAD</t>
   </si>
 </sst>
 </file>
@@ -849,7 +854,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1071,12 +1076,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1240,7 +1239,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1375,11 +1374,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1427,9 +1422,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="38" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,10 +1441,11 @@
     <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1868,20 +1861,20 @@
       <selection activeCell="C17" sqref="C17:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="11" customWidth="1"/>
-    <col min="4" max="14" width="15.5703125" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="11" customWidth="1"/>
+    <col min="4" max="14" width="15.5546875" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1905,7 +1898,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1923,11 +1916,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="D6"/>
@@ -1942,7 +1935,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +1949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -1968,7 +1961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
@@ -1980,7 +1973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
@@ -1992,7 +1985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
@@ -2004,7 +1997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -2017,7 +2010,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -2029,7 +2022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -2041,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
@@ -2053,11 +2046,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2077,7 +2070,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>88</v>
@@ -2095,7 +2088,7 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>25</v>
@@ -2114,7 +2107,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>26</v>
@@ -2132,7 +2125,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
         <v>27</v>
@@ -2150,7 +2143,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
@@ -2161,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
@@ -2172,7 +2165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>30</v>
@@ -2184,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
@@ -2197,7 +2190,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>32</v>
@@ -2209,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>33</v>
@@ -2221,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>34</v>
@@ -2233,11 +2226,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -2257,7 +2250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
@@ -2275,11 +2268,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +2292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4" t="s">
         <v>41</v>
@@ -2317,7 +2310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="4" t="s">
         <v>42</v>
@@ -2335,7 +2328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
@@ -2353,13 +2346,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
       <c r="C37" s="22"/>
       <c r="D37" s="23"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -2379,7 +2372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="24" t="s">
         <v>47</v>
@@ -2397,7 +2390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="24" t="s">
         <v>48</v>
@@ -2415,7 +2408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2423,7 +2416,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2439,7 +2432,7 @@
       <c r="E42"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="24" t="s">
         <v>51</v>
@@ -2453,7 +2446,7 @@
       <c r="E43"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="24" t="s">
         <v>52</v>
@@ -2467,7 +2460,7 @@
       <c r="E44"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="24" t="s">
         <v>53</v>
@@ -2481,7 +2474,7 @@
       <c r="E45"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="24" t="s">
         <v>54</v>
@@ -2495,7 +2488,7 @@
       <c r="E46"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="24"/>
       <c r="C47"/>
@@ -2503,7 +2496,7 @@
       <c r="E47"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -2519,7 +2512,7 @@
       <c r="E48"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="24" t="s">
         <v>58</v>
@@ -2533,7 +2526,7 @@
       <c r="E49"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="24" t="s">
         <v>59</v>
@@ -2547,7 +2540,7 @@
       <c r="E50"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="24" t="s">
         <v>60</v>
@@ -2561,7 +2554,7 @@
       <c r="E51"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="24"/>
       <c r="C52"/>
@@ -2569,7 +2562,7 @@
       <c r="E52"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2589,7 +2582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="24" t="s">
         <v>62</v>
@@ -2603,11 +2596,11 @@
       <c r="E54"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2621,7 +2614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="24" t="s">
         <v>65</v>
@@ -2631,7 +2624,7 @@
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="4" t="s">
         <v>66</v>
@@ -2641,7 +2634,7 @@
       </c>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="4" t="s">
         <v>67</v>
@@ -2651,11 +2644,11 @@
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>68</v>
       </c>
@@ -2669,7 +2662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>72</v>
@@ -2682,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>73</v>
@@ -2695,11 +2688,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,7 +2710,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="30" t="s">
         <v>76</v>
       </c>
@@ -2732,7 +2725,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="30" t="s">
         <v>77</v>
       </c>
@@ -2745,7 +2738,7 @@
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="30" t="s">
         <v>78</v>
       </c>
@@ -2759,7 +2752,7 @@
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" s="30" t="s">
         <v>79</v>
       </c>
@@ -2772,7 +2765,7 @@
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B70" s="30" t="s">
         <v>80</v>
       </c>
@@ -2785,7 +2778,7 @@
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" s="30" t="s">
         <v>81</v>
       </c>
@@ -2799,7 +2792,7 @@
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B72" s="30" t="s">
         <v>82</v>
       </c>
@@ -2812,7 +2805,7 @@
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" s="30" t="s">
         <v>83</v>
       </c>
@@ -2825,7 +2818,7 @@
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" s="30" t="s">
         <v>84</v>
       </c>
@@ -2838,7 +2831,7 @@
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" s="30" t="s">
         <v>85</v>
       </c>
@@ -2851,7 +2844,7 @@
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" s="30" t="s">
         <v>86</v>
       </c>
@@ -2865,7 +2858,7 @@
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C77" s="33"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
@@ -2873,7 +2866,7 @@
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="27" t="s">
         <v>75</v>
       </c>
@@ -2885,7 +2878,7 @@
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="30" t="s">
         <v>76</v>
       </c>
@@ -2909,7 +2902,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="30" t="s">
         <v>77</v>
       </c>
@@ -2933,7 +2926,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="30" t="s">
         <v>78</v>
       </c>
@@ -2957,7 +2950,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="30" t="s">
         <v>79</v>
       </c>
@@ -2981,7 +2974,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="30" t="s">
         <v>80</v>
       </c>
@@ -3021,137 +3014,137 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="72" t="s">
         <v>168</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="C2" s="25">
         <v>500</v>
       </c>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="C3" s="25">
         <v>1000</v>
       </c>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="62"/>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="60"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="C5" s="25">
         <v>100</v>
       </c>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="C6" s="25">
         <v>300</v>
       </c>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="62"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="47">
+        <v>100</v>
+      </c>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="49">
+      <c r="B9" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="47">
+        <v>200</v>
+      </c>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="47">
         <v>100</v>
       </c>
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="49">
-        <v>200</v>
-      </c>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="49">
-        <v>100</v>
-      </c>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="49">
+      <c r="B11" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="47">
         <v>150</v>
       </c>
-      <c r="E11" s="51"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="E12" s="51"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="55" t="s">
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3170,41 +3163,41 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="72"/>
+        <v>183</v>
+      </c>
+      <c r="B2" s="69"/>
       <c r="C2" s="7">
         <v>0.01</v>
       </c>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="55" t="s">
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3223,90 +3216,90 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>177</v>
+      <c r="B2" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="C2" s="25">
         <v>50000</v>
       </c>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>177</v>
+      <c r="B3" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="C3" s="25">
         <v>12000</v>
       </c>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>177</v>
+      <c r="B4" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="C4" s="25">
         <v>2000</v>
       </c>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>177</v>
+      <c r="B5" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="C5" s="25">
         <v>1500</v>
       </c>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="55" t="s">
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="51"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3325,105 +3318,105 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="72"/>
+        <v>177</v>
+      </c>
+      <c r="B2" s="69"/>
       <c r="C2" s="25">
         <v>800</v>
       </c>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>183</v>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>182</v>
       </c>
       <c r="C3" s="25">
         <v>400</v>
       </c>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>183</v>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>182</v>
       </c>
       <c r="C4" s="25">
         <v>200</v>
       </c>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>183</v>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>182</v>
       </c>
       <c r="C5" s="25">
         <v>50</v>
       </c>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>183</v>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>182</v>
       </c>
       <c r="C6" s="25">
         <v>60</v>
       </c>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="67">
+      <c r="E6" s="49"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="65">
         <v>3</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="65">
         <v>6</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="65">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="55" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3442,70 +3435,70 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="37" customWidth="1"/>
     <col min="3" max="3" width="9" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="36">
         <v>2000</v>
       </c>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="51"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3521,68 +3514,68 @@
   <dimension ref="A2:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>133</v>
+        <v>187</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>132</v>
       </c>
       <c r="C2" s="25">
         <v>50000</v>
       </c>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="67">
+      <c r="B3" s="60"/>
+      <c r="C3" s="65">
         <v>4</v>
       </c>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="67">
+      <c r="B4" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="65">
         <v>5</v>
       </c>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="51"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3591,282 +3584,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB1F74F-5A15-4070-ABC2-DBD9F47CD0B1}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="53"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="25">
-        <v>0</v>
-      </c>
-      <c r="L2" s="52"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
-        <v>-2</v>
-      </c>
-      <c r="B3" s="37">
-        <v>5</v>
-      </c>
-      <c r="C3" s="36">
-        <v>19500</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="12">
-        <v>-0.15</v>
-      </c>
-      <c r="F3" s="13">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="25">
-        <f>110+120</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
-        <v>-2</v>
-      </c>
-      <c r="B4" s="37">
-        <f>A4+8</f>
-        <v>6</v>
-      </c>
-      <c r="C4" s="36">
-        <v>23500</v>
-      </c>
-      <c r="D4" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="56">
-        <v>-0.15</v>
-      </c>
-      <c r="F4" s="59">
-        <v>5</v>
-      </c>
-      <c r="G4" s="60">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="25">
-        <v>25</v>
-      </c>
-      <c r="L4" s="25">
-        <v>75</v>
-      </c>
-      <c r="M4" s="25">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
-        <f>B3+1</f>
-        <v>6</v>
-      </c>
-      <c r="B5" s="37">
-        <f>A5+7</f>
-        <v>13</v>
-      </c>
-      <c r="C5" s="36">
-        <v>25000</v>
-      </c>
-      <c r="D5" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="56">
-        <v>-0.15</v>
-      </c>
-      <c r="F5" s="59">
-        <v>5</v>
-      </c>
-      <c r="G5" s="60">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
-        <f>B4+1</f>
-        <v>7</v>
-      </c>
-      <c r="B6" s="37">
-        <f>A6+8</f>
-        <v>15</v>
-      </c>
-      <c r="C6" s="36">
-        <v>30000</v>
-      </c>
-      <c r="D6" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="56">
-        <v>-0.15</v>
-      </c>
-      <c r="F6" s="59">
-        <v>5</v>
-      </c>
-      <c r="G6" s="60">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="49">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <f>B5+1</f>
-        <v>14</v>
-      </c>
-      <c r="B7" s="37">
-        <f>A7+7</f>
-        <v>21</v>
-      </c>
-      <c r="C7" s="36">
-        <v>30000</v>
-      </c>
-      <c r="D7" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="56">
-        <v>-0.15</v>
-      </c>
-      <c r="F7" s="59">
-        <v>5</v>
-      </c>
-      <c r="G7" s="60">
-        <v>1.9E-2</v>
-      </c>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <f>B6+1</f>
-        <v>16</v>
-      </c>
-      <c r="B8" s="37">
-        <f>A8+8</f>
-        <v>24</v>
-      </c>
-      <c r="C8" s="36">
-        <v>35000</v>
-      </c>
-      <c r="D8" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="56">
-        <v>-0.15</v>
-      </c>
-      <c r="F8" s="59">
-        <v>5</v>
-      </c>
-      <c r="G8" s="60">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C49DA5D-4944-4CAF-B436-E7E5AFCEF148}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -3874,27 +3591,27 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="73"/>
       <c r="B2" s="41" t="s">
         <v>107</v>
       </c>
@@ -3905,155 +3622,155 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <v>10000</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>10000</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>10000</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>10000</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>10000</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <v>10000</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <v>10000</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>10000</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>10000</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>10000</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>10000</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>74</v>
@@ -4067,24 +3784,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CE992E-FAF4-40CB-8323-EE3FED99FC40}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>75</v>
       </c>
@@ -4096,7 +3813,7 @@
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>95</v>
       </c>
@@ -4116,7 +3833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>96</v>
       </c>
@@ -4136,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>97</v>
       </c>
@@ -4156,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>98</v>
       </c>
@@ -4176,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>99</v>
       </c>
@@ -4196,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>101</v>
       </c>
@@ -4216,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>100</v>
       </c>
@@ -4236,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>102</v>
       </c>
@@ -4256,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>104</v>
       </c>
@@ -4276,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>103</v>
       </c>
@@ -4296,7 +4013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>105</v>
       </c>
@@ -4321,7 +4038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6CA22D-5C95-47B0-8C30-F5F775E3CBBB}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -4329,17 +4046,18 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -4349,8 +4067,8 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="73"/>
       <c r="B2" s="41" t="s">
         <v>90</v>
       </c>
@@ -4364,7 +4082,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>95</v>
       </c>
@@ -4374,10 +4092,10 @@
       <c r="C3" s="44">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>96</v>
       </c>
@@ -4387,10 +4105,10 @@
       <c r="C4" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>97</v>
       </c>
@@ -4400,10 +4118,10 @@
       <c r="C5" s="44">
         <v>0.03</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>98</v>
       </c>
@@ -4413,10 +4131,10 @@
       <c r="C6" s="44">
         <v>0.15</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>99</v>
       </c>
@@ -4426,10 +4144,10 @@
       <c r="C7" s="44">
         <v>0.3</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>101</v>
       </c>
@@ -4439,14 +4157,14 @@
       <c r="C8" s="44">
         <v>0.03</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="75">
         <v>0.04</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="75">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>100</v>
       </c>
@@ -4456,14 +4174,14 @@
       <c r="C9" s="44">
         <v>0.03</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="75">
         <v>0.05</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="75">
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>102</v>
       </c>
@@ -4473,10 +4191,10 @@
       <c r="C10" s="44">
         <v>0.02</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>104</v>
       </c>
@@ -4486,10 +4204,10 @@
       <c r="C11" s="44">
         <v>0.01</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>103</v>
       </c>
@@ -4499,10 +4217,10 @@
       <c r="C12" s="44">
         <v>0.01</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>105</v>
       </c>
@@ -4512,8 +4230,8 @@
       <c r="C13" s="44">
         <v>0.01</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4531,74 +4249,74 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="1" max="1" width="14.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
-      <c r="D1" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="71"/>
+        <v>125</v>
+      </c>
+      <c r="J2" s="68"/>
       <c r="K2" s="25">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>-2</v>
       </c>
@@ -4621,17 +4339,17 @@
         <v>2.7E-2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="71"/>
+        <v>127</v>
+      </c>
+      <c r="J3" s="68"/>
       <c r="K3" s="20">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L3" s="52"/>
+      <c r="L3" s="50"/>
       <c r="M3"/>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>18</v>
       </c>
@@ -4642,23 +4360,23 @@
       <c r="C4" s="36">
         <v>850000</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <v>0.2</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="58">
         <v>0.02</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="57">
         <v>30</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="58">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>131</v>
       </c>
       <c r="K4" s="25">
         <v>500</v>
@@ -4670,7 +4388,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>33</v>
       </c>
@@ -4681,161 +4399,161 @@
       <c r="C5" s="36">
         <v>1250000</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="54">
         <v>0.2</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="58">
         <v>0.02</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="57">
         <v>20</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="58">
         <v>0.03</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+      <c r="J5" s="69" t="s">
+        <v>132</v>
       </c>
       <c r="K5" s="25">
         <v>1000</v>
       </c>
       <c r="M5"/>
-      <c r="N5" s="51"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="49"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="37"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
       <c r="I6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="47">
         <v>50</v>
       </c>
       <c r="M6"/>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="49"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="37"/>
       <c r="C7" s="36"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
-      <c r="I7" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="72" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="I7" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="47">
         <v>125</v>
       </c>
       <c r="M7"/>
-      <c r="N7" s="51"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="49"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="37"/>
       <c r="C8" s="36"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="I8" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="72" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="I8" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="47">
         <v>50</v>
       </c>
       <c r="M8"/>
-      <c r="N8" s="51"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="49"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="37"/>
       <c r="C9" s="36"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="54"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
       <c r="B10" s="37"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="I10" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" s="55" t="s">
+      <c r="D10" s="54"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="I10" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="54"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="37"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="54"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="37"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="54"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="37"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="58"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="58"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="58"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4851,71 +4569,71 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="1" max="1" width="14.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
-      <c r="D1" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="75" t="s">
+      <c r="D1" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G1" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="71"/>
+        <v>125</v>
+      </c>
+      <c r="J2" s="68"/>
       <c r="K2" s="25">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>-2</v>
       </c>
@@ -4938,9 +4656,9 @@
         <v>1.9E-2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="70" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="25">
@@ -4948,7 +4666,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>-2</v>
       </c>
@@ -4959,23 +4677,23 @@
       <c r="C4" s="36">
         <v>23500</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <v>0.2</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="57">
         <v>60</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="58">
         <v>1.9E-2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>124</v>
       </c>
       <c r="K4" s="25">
         <v>25</v>
@@ -4987,7 +4705,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <f>B3+1</f>
         <v>6</v>
@@ -4999,29 +4717,29 @@
       <c r="C5" s="36">
         <v>25000</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="54">
         <v>0.2</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="57">
         <v>60</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="58">
         <v>1.9E-2</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="70" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <f>B4+1</f>
         <v>7</v>
@@ -5033,29 +4751,29 @@
       <c r="C6" s="36">
         <v>30000</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="54">
         <v>0.2</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="57">
         <v>60</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="58">
         <v>1.9E-2</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="47">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <f>B5+1</f>
         <v>14</v>
@@ -5067,20 +4785,20 @@
       <c r="C7" s="36">
         <v>30000</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="54">
         <v>0.2</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="57">
         <v>60</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <f>B6+1</f>
         <v>16</v>
@@ -5092,26 +4810,26 @@
       <c r="C8" s="36">
         <v>35000</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="54">
         <v>0.2</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="57">
         <v>60</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="58">
         <v>1.9E-2</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>21</v>
       </c>
@@ -5122,20 +4840,20 @@
       <c r="C9" s="36">
         <v>22500</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>0.2</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="57">
         <v>60</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <f>B7+1</f>
         <v>22</v>
@@ -5147,20 +4865,20 @@
       <c r="C10" s="36">
         <v>40000</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="54">
         <v>0.2</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="57">
         <v>60</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>23</v>
       </c>
@@ -5171,20 +4889,20 @@
       <c r="C11" s="36">
         <v>22500</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="54">
         <v>0.2</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="57">
         <v>60</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <f>B8+1</f>
         <v>25</v>
@@ -5196,20 +4914,20 @@
       <c r="C12" s="36">
         <v>40000</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="54">
         <v>0.2</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="57">
         <v>60</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <f>B10+1</f>
         <v>31</v>
@@ -5221,20 +4939,20 @@
       <c r="C13" s="36">
         <v>45000</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="54">
         <v>0.2</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="57">
         <v>60</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <f>B12+1</f>
         <v>34</v>
@@ -5246,30 +4964,30 @@
       <c r="C14" s="36">
         <v>45000</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="54">
         <v>0.2</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="57">
         <v>60</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="58"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="58"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="58"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5285,71 +5003,71 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="1" max="1" width="14.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
-      <c r="D1" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="74"/>
+        <v>125</v>
+      </c>
+      <c r="J2" s="71"/>
       <c r="K2" s="25">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>-2</v>
       </c>
@@ -5372,9 +5090,9 @@
         <v>1.9E-2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="69" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="25">
@@ -5382,7 +5100,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>-2</v>
       </c>
@@ -5393,23 +5111,23 @@
       <c r="C4" s="36">
         <v>23500</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <v>0.2</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="57">
         <v>5</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="58">
         <v>1.9E-2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>124</v>
       </c>
       <c r="K4" s="25">
         <v>25</v>
@@ -5421,7 +5139,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <f>B3+1</f>
         <v>6</v>
@@ -5433,29 +5151,29 @@
       <c r="C5" s="36">
         <v>25000</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="54">
         <v>0.2</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="57">
         <v>5</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="58">
         <v>1.9E-2</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="69" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <f>B4+1</f>
         <v>7</v>
@@ -5467,29 +5185,29 @@
       <c r="C6" s="36">
         <v>30000</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="54">
         <v>0.2</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="57">
         <v>5</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="58">
         <v>1.9E-2</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="47">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <f>B5+1</f>
         <v>14</v>
@@ -5501,20 +5219,20 @@
       <c r="C7" s="36">
         <v>30000</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="54">
         <v>0.2</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="57">
         <v>5</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <f>B6+1</f>
         <v>16</v>
@@ -5526,26 +5244,26 @@
       <c r="C8" s="36">
         <v>35000</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="54">
         <v>0.2</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="57">
         <v>5</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="58">
         <v>1.9E-2</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>21</v>
       </c>
@@ -5556,20 +5274,20 @@
       <c r="C9" s="36">
         <v>22500</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>0.2</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="57">
         <v>5</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <f>B7+1</f>
         <v>22</v>
@@ -5581,20 +5299,20 @@
       <c r="C10" s="36">
         <v>40000</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="54">
         <v>0.2</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="57">
         <v>5</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>23</v>
       </c>
@@ -5605,20 +5323,20 @@
       <c r="C11" s="36">
         <v>22500</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="54">
         <v>0.2</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="57">
         <v>5</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <f>B8+1</f>
         <v>25</v>
@@ -5630,20 +5348,20 @@
       <c r="C12" s="36">
         <v>40000</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="54">
         <v>0.2</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="57">
         <v>5</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <f>B10+1</f>
         <v>31</v>
@@ -5655,20 +5373,20 @@
       <c r="C13" s="36">
         <v>45000</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="54">
         <v>0.2</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="57">
         <v>5</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <f>B12+1</f>
         <v>34</v>
@@ -5680,30 +5398,30 @@
       <c r="C14" s="36">
         <v>45000</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="54">
         <v>0.2</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="54">
         <v>-0.15</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="57">
         <v>5</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="58">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="58"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="58"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="58"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5722,91 +5440,91 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="25">
         <v>700</v>
       </c>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="25">
         <v>200</v>
       </c>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="25">
         <v>25</v>
       </c>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="25">
         <v>20</v>
       </c>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="47">
         <v>50</v>
       </c>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="55" t="s">
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5825,131 +5543,131 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="25">
         <v>65</v>
       </c>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="25">
         <v>50</v>
       </c>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="36">
         <v>20</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="62">
         <f>80/12</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="M4" s="65"/>
-    </row>
-    <row r="5" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="63"/>
+      <c r="M4" s="63"/>
+    </row>
+    <row r="5" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="36">
         <v>5</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="62">
         <v>5.833333333333333</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="63">
         <v>10</v>
       </c>
-      <c r="M5" s="65"/>
-    </row>
-    <row r="6" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="63"/>
+    </row>
+    <row r="6" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="36">
         <v>18.333333333333332</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="62">
         <v>12.5</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="63">
         <v>52.083333333333336</v>
       </c>
-      <c r="M6" s="65"/>
-    </row>
-    <row r="7" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="66" t="s">
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="66"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="55" t="s">
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="66" t="s">
+      <c r="D9" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="64" t="s">
         <v>143</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5969,91 +5687,91 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="25">
         <v>100</v>
       </c>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="25">
         <v>50</v>
       </c>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="25">
         <v>60</v>
       </c>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="25">
         <v>30</v>
       </c>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="68"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="55" t="s">
+      <c r="B7" s="60"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6069,87 +5787,87 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" activeCellId="2" sqref="B2:B4 B6:B8 B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>133</v>
+        <v>156</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>132</v>
       </c>
       <c r="C2" s="25">
         <v>3000</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="66"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="72"/>
+        <v>157</v>
+      </c>
+      <c r="B3" s="69"/>
       <c r="C3" s="12">
         <v>0.3</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="67"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>133</v>
+        <v>158</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>132</v>
       </c>
       <c r="C4" s="25">
         <v>9100</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="66"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="62"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="60"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="65">
+        <v>0</v>
+      </c>
+      <c r="D6" s="65">
+        <v>2</v>
+      </c>
+      <c r="E6" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="67">
-        <v>0</v>
-      </c>
-      <c r="D6" s="67">
-        <v>2</v>
-      </c>
-      <c r="E6" s="67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>124</v>
+      <c r="B7" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="C7" s="25">
         <v>50</v>
@@ -6161,47 +5879,47 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="25">
         <v>30</v>
       </c>
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="62"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="67" t="b">
+      <c r="B10" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="65" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="E11" s="51"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="51"/>
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6220,92 +5938,92 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="51"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="25">
         <v>400</v>
       </c>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="25">
         <v>80</v>
       </c>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="25">
         <v>25</v>
       </c>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="25">
         <v>0</v>
       </c>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="47">
         <f>(250*4+800)/12</f>
         <v>150</v>
       </c>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="55" t="s">
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/python/Inputs.xlsx
+++ b/python/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC (2)\Desktop\Projects\personalFinances\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83F1C4-2C00-4A85-8681-7FBCA9A0452F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7702727-93F0-4D9E-8743-C98A540C13B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1444,8 +1444,7 @@
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1861,20 +1860,20 @@
       <selection activeCell="C17" sqref="C17:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="11" customWidth="1"/>
-    <col min="4" max="14" width="15.5546875" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="29"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="11" customWidth="1"/>
+    <col min="4" max="14" width="15.5703125" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1898,7 +1897,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1916,11 +1915,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="D6"/>
@@ -1935,7 +1934,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -1961,7 +1960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
@@ -1973,7 +1972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
@@ -1985,7 +1984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
@@ -1997,7 +1996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -2010,7 +2009,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -2022,7 +2021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -2034,7 +2033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
@@ -2046,11 +2045,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2070,7 +2069,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>88</v>
@@ -2088,7 +2087,7 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>25</v>
@@ -2107,7 +2106,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>26</v>
@@ -2125,7 +2124,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
         <v>27</v>
@@ -2143,7 +2142,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>30</v>
@@ -2177,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
@@ -2190,7 +2189,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>32</v>
@@ -2202,7 +2201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>33</v>
@@ -2214,7 +2213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>34</v>
@@ -2226,11 +2225,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
@@ -2268,11 +2267,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2292,7 +2291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="4" t="s">
         <v>41</v>
@@ -2310,7 +2309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="4" t="s">
         <v>42</v>
@@ -2328,7 +2327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
@@ -2346,13 +2345,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
       <c r="C37" s="22"/>
       <c r="D37" s="23"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="24" t="s">
         <v>47</v>
@@ -2390,7 +2389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="24" t="s">
         <v>48</v>
@@ -2408,7 +2407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2416,7 +2415,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2432,7 +2431,7 @@
       <c r="E42"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="24" t="s">
         <v>51</v>
@@ -2446,7 +2445,7 @@
       <c r="E43"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="24" t="s">
         <v>52</v>
@@ -2460,7 +2459,7 @@
       <c r="E44"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="24" t="s">
         <v>53</v>
@@ -2474,7 +2473,7 @@
       <c r="E45"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="24" t="s">
         <v>54</v>
@@ -2488,7 +2487,7 @@
       <c r="E46"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="24"/>
       <c r="C47"/>
@@ -2496,7 +2495,7 @@
       <c r="E47"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -2512,7 +2511,7 @@
       <c r="E48"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="24" t="s">
         <v>58</v>
@@ -2526,7 +2525,7 @@
       <c r="E49"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="24" t="s">
         <v>59</v>
@@ -2540,7 +2539,7 @@
       <c r="E50"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="24" t="s">
         <v>60</v>
@@ -2554,7 +2553,7 @@
       <c r="E51"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="24"/>
       <c r="C52"/>
@@ -2562,7 +2561,7 @@
       <c r="E52"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="24" t="s">
         <v>62</v>
@@ -2596,11 +2595,11 @@
       <c r="E54"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="24" t="s">
         <v>65</v>
@@ -2624,7 +2623,7 @@
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="4" t="s">
         <v>66</v>
@@ -2634,7 +2633,7 @@
       </c>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="4" t="s">
         <v>67</v>
@@ -2644,11 +2643,11 @@
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>68</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>72</v>
@@ -2675,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>73</v>
@@ -2688,11 +2687,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
@@ -2710,7 +2709,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B66" s="30" t="s">
         <v>76</v>
       </c>
@@ -2725,7 +2724,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B67" s="30" t="s">
         <v>77</v>
       </c>
@@ -2738,7 +2737,7 @@
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B68" s="30" t="s">
         <v>78</v>
       </c>
@@ -2752,7 +2751,7 @@
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B69" s="30" t="s">
         <v>79</v>
       </c>
@@ -2765,7 +2764,7 @@
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B70" s="30" t="s">
         <v>80</v>
       </c>
@@ -2778,7 +2777,7 @@
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B71" s="30" t="s">
         <v>81</v>
       </c>
@@ -2792,7 +2791,7 @@
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B72" s="30" t="s">
         <v>82</v>
       </c>
@@ -2805,7 +2804,7 @@
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B73" s="30" t="s">
         <v>83</v>
       </c>
@@ -2818,7 +2817,7 @@
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B74" s="30" t="s">
         <v>84</v>
       </c>
@@ -2831,7 +2830,7 @@
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B75" s="30" t="s">
         <v>85</v>
       </c>
@@ -2844,7 +2843,7 @@
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B76" s="30" t="s">
         <v>86</v>
       </c>
@@ -2858,7 +2857,7 @@
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C77" s="33"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
@@ -2866,7 +2865,7 @@
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B79" s="27" t="s">
         <v>75</v>
       </c>
@@ -2878,7 +2877,7 @@
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B80" s="30" t="s">
         <v>76</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="30" t="s">
         <v>77</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="30" t="s">
         <v>78</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="30" t="s">
         <v>79</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="30" t="s">
         <v>80</v>
       </c>
@@ -3014,20 +3013,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -3039,7 +3038,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>169</v>
       </c>
@@ -3051,12 +3050,12 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="60"/>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>171</v>
       </c>
@@ -3068,7 +3067,7 @@
       </c>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>170</v>
       </c>
@@ -3080,12 +3079,12 @@
       </c>
       <c r="E6" s="49"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="60"/>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>172</v>
       </c>
@@ -3097,7 +3096,7 @@
       </c>
       <c r="E8" s="49"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>173</v>
       </c>
@@ -3109,7 +3108,7 @@
       </c>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>174</v>
       </c>
@@ -3121,7 +3120,7 @@
       </c>
       <c r="E10" s="49"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>175</v>
       </c>
@@ -3133,11 +3132,11 @@
       </c>
       <c r="E11" s="49"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="E12" s="49"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>126</v>
       </c>
@@ -3163,20 +3162,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>183</v>
       </c>
@@ -3186,11 +3185,11 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>126</v>
       </c>
@@ -3216,19 +3215,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -3240,7 +3239,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>58</v>
       </c>
@@ -3252,7 +3251,7 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>59</v>
       </c>
@@ -3264,7 +3263,7 @@
       </c>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>60</v>
       </c>
@@ -3276,11 +3275,11 @@
       </c>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="E6" s="49"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>126</v>
       </c>
@@ -3289,16 +3288,16 @@
       </c>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="49"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="49"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="49"/>
     </row>
   </sheetData>
@@ -3318,19 +3317,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>177</v>
       </c>
@@ -3340,7 +3339,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>179</v>
       </c>
@@ -3352,7 +3351,7 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -3364,7 +3363,7 @@
       </c>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>178</v>
       </c>
@@ -3376,7 +3375,7 @@
       </c>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>180</v>
       </c>
@@ -3388,7 +3387,7 @@
       </c>
       <c r="E6" s="49"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>181</v>
       </c>
@@ -3405,11 +3404,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>126</v>
       </c>
@@ -3435,28 +3434,28 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="37" customWidth="1"/>
     <col min="3" max="3" width="9" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>1</v>
       </c>
@@ -3485,19 +3484,19 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" s="49"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="49"/>
     </row>
   </sheetData>
@@ -3517,20 +3516,20 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>187</v>
       </c>
@@ -3542,7 +3541,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
@@ -3552,7 +3551,7 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
@@ -3564,11 +3563,11 @@
       </c>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>126</v>
       </c>
@@ -3594,15 +3593,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>75</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="73"/>
       <c r="B2" s="41" t="s">
         <v>107</v>
@@ -3622,7 +3621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>95</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>96</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>97</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>98</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>99</v>
       </c>
@@ -3692,7 +3691,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>101</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>100</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>102</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>104</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>103</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>105</v>
       </c>
@@ -3792,16 +3791,16 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>75</v>
       </c>
@@ -3813,107 +3812,107 @@
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="42">
-        <v>2</v>
-      </c>
-      <c r="E2" s="43">
-        <v>3</v>
-      </c>
-      <c r="F2" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0</v>
+      </c>
+      <c r="F2" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="42">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="42">
-        <v>3</v>
-      </c>
-      <c r="E4" s="43">
-        <v>1</v>
-      </c>
-      <c r="F4" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="42">
+        <v>0</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="42">
-        <v>2</v>
-      </c>
-      <c r="E5" s="43">
-        <v>1</v>
-      </c>
-      <c r="F5" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="42">
+        <v>0</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="42">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43">
         <v>0</v>
       </c>
-      <c r="F6" s="43">
+      <c r="E6" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>101</v>
       </c>
@@ -3926,14 +3925,14 @@
       <c r="D7" s="42">
         <v>0</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="42">
         <v>0</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>100</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>102</v>
       </c>
@@ -3961,10 +3960,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="42">
+        <v>5</v>
+      </c>
+      <c r="D9" s="42">
         <v>8</v>
-      </c>
-      <c r="D9" s="42">
-        <v>9</v>
       </c>
       <c r="E9" s="43">
         <v>0</v>
@@ -3973,47 +3972,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" s="42">
         <v>8</v>
       </c>
       <c r="D10" s="42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10" s="43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11" s="42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" s="43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F11" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>105</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="43">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4046,17 +4045,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" style="74" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>75</v>
       </c>
@@ -4067,7 +4066,7 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="73"/>
       <c r="B2" s="41" t="s">
         <v>90</v>
@@ -4082,7 +4081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>95</v>
       </c>
@@ -4090,51 +4089,51 @@
         <v>0.04</v>
       </c>
       <c r="C3" s="44">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="44">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C4" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="44">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C5" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="44">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C6" s="44">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>99</v>
       </c>
@@ -4142,12 +4141,12 @@
         <v>0.3</v>
       </c>
       <c r="C7" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>101</v>
       </c>
@@ -4155,16 +4154,16 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D8" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="74">
         <v>0.04</v>
       </c>
-      <c r="E8" s="75">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="74">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>100</v>
       </c>
@@ -4172,16 +4171,16 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="74">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="74">
         <v>0.03</v>
       </c>
-      <c r="D9" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="75">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>102</v>
       </c>
@@ -4189,12 +4188,12 @@
         <v>0.06</v>
       </c>
       <c r="C10" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>104</v>
       </c>
@@ -4204,10 +4203,10 @@
       <c r="C11" s="44">
         <v>0.01</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>103</v>
       </c>
@@ -4217,10 +4216,10 @@
       <c r="C12" s="44">
         <v>0.01</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>105</v>
       </c>
@@ -4230,8 +4229,8 @@
       <c r="C13" s="44">
         <v>0.01</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4249,24 +4248,24 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -4283,7 +4282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
@@ -4316,7 +4315,7 @@
       <c r="M2"/>
       <c r="N2" s="49"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>-2</v>
       </c>
@@ -4349,7 +4348,7 @@
       <c r="M3"/>
       <c r="N3" s="49"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>18</v>
       </c>
@@ -4388,7 +4387,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>33</v>
       </c>
@@ -4423,7 +4422,7 @@
       <c r="M5"/>
       <c r="N5" s="49"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="37"/>
       <c r="C6" s="36"/>
@@ -4443,7 +4442,7 @@
       <c r="M6"/>
       <c r="N6" s="49"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="37"/>
       <c r="C7" s="36"/>
@@ -4463,7 +4462,7 @@
       <c r="M7"/>
       <c r="N7" s="49"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="37"/>
       <c r="C8" s="36"/>
@@ -4483,7 +4482,7 @@
       <c r="M8"/>
       <c r="N8" s="49"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="37"/>
       <c r="C9" s="36"/>
@@ -4492,7 +4491,7 @@
       <c r="F9" s="57"/>
       <c r="G9" s="58"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="37"/>
       <c r="C10" s="36"/>
@@ -4507,7 +4506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="36"/>
@@ -4516,7 +4515,7 @@
       <c r="F11" s="57"/>
       <c r="G11" s="58"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="37"/>
       <c r="C12" s="36"/>
@@ -4525,7 +4524,7 @@
       <c r="F12" s="57"/>
       <c r="G12" s="58"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="37"/>
       <c r="C13" s="36"/>
@@ -4534,7 +4533,7 @@
       <c r="F13" s="57"/>
       <c r="G13" s="58"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="37"/>
       <c r="C14" s="36"/>
@@ -4543,16 +4542,16 @@
       <c r="F14" s="57"/>
       <c r="G14" s="58"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G16" s="56"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="56"/>
     </row>
   </sheetData>
@@ -4572,20 +4571,20 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -4602,7 +4601,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
@@ -4633,7 +4632,7 @@
       </c>
       <c r="L2" s="50"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>-2</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>-2</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <f>B3+1</f>
         <v>6</v>
@@ -4739,7 +4738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <f>B4+1</f>
         <v>7</v>
@@ -4773,7 +4772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <f>B5+1</f>
         <v>14</v>
@@ -4798,7 +4797,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <f>B6+1</f>
         <v>16</v>
@@ -4829,7 +4828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>21</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <f>B7+1</f>
         <v>22</v>
@@ -4878,7 +4877,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>23</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <f>B8+1</f>
         <v>25</v>
@@ -4927,7 +4926,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <f>B10+1</f>
         <v>31</v>
@@ -4952,7 +4951,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <f>B12+1</f>
         <v>34</v>
@@ -4977,16 +4976,16 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" s="56"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="56"/>
     </row>
   </sheetData>
@@ -5006,20 +5005,20 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="21.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -5036,7 +5035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
@@ -5067,7 +5066,7 @@
       </c>
       <c r="L2" s="50"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>-2</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>-2</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <f>B3+1</f>
         <v>6</v>
@@ -5173,7 +5172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <f>B4+1</f>
         <v>7</v>
@@ -5207,7 +5206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <f>B5+1</f>
         <v>14</v>
@@ -5232,7 +5231,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <f>B6+1</f>
         <v>16</v>
@@ -5263,7 +5262,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>21</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <f>B7+1</f>
         <v>22</v>
@@ -5312,7 +5311,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>23</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <f>B8+1</f>
         <v>25</v>
@@ -5361,7 +5360,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <f>B10+1</f>
         <v>31</v>
@@ -5386,7 +5385,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <f>B12+1</f>
         <v>34</v>
@@ -5411,16 +5410,16 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" s="56"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="56"/>
     </row>
   </sheetData>
@@ -5440,20 +5439,20 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -5465,7 +5464,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -5477,7 +5476,7 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>134</v>
       </c>
@@ -5489,7 +5488,7 @@
       </c>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>135</v>
       </c>
@@ -5501,7 +5500,7 @@
       </c>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>136</v>
       </c>
@@ -5513,11 +5512,11 @@
       </c>
       <c r="E6" s="49"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>126</v>
       </c>
@@ -5543,20 +5542,20 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>137</v>
       </c>
@@ -5568,7 +5567,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>138</v>
       </c>
@@ -5580,7 +5579,7 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>139</v>
       </c>
@@ -5597,7 +5596,7 @@
       <c r="E4" s="63"/>
       <c r="M4" s="63"/>
     </row>
-    <row r="5" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>146</v>
       </c>
@@ -5615,7 +5614,7 @@
       </c>
       <c r="M5" s="63"/>
     </row>
-    <row r="6" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>147</v>
       </c>
@@ -5633,7 +5632,7 @@
       </c>
       <c r="M6" s="63"/>
     </row>
-    <row r="7" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="64" t="s">
         <v>148</v>
       </c>
@@ -5642,7 +5641,7 @@
       </c>
       <c r="E7" s="64"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>126</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="64" t="s">
         <v>142</v>
       </c>
@@ -5687,21 +5686,21 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>150</v>
       </c>
@@ -5713,7 +5712,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>151</v>
       </c>
@@ -5725,7 +5724,7 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>152</v>
       </c>
@@ -5737,7 +5736,7 @@
       </c>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>153</v>
       </c>
@@ -5749,7 +5748,7 @@
       </c>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>154</v>
       </c>
@@ -5760,11 +5759,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="60"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>126</v>
       </c>
@@ -5790,20 +5789,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5816,7 +5815,7 @@
       <c r="D2" s="66"/>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -5827,7 +5826,7 @@
       <c r="D3" s="67"/>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>158</v>
       </c>
@@ -5840,12 +5839,12 @@
       <c r="D4" s="66"/>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="60"/>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>159</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>160</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>155</v>
       </c>
@@ -5891,12 +5890,12 @@
       </c>
       <c r="E8" s="49"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="60"/>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>162</v>
       </c>
@@ -5908,11 +5907,11 @@
       </c>
       <c r="E10" s="49"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="E11" s="49"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>126</v>
       </c>
@@ -5938,20 +5937,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="49"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
@@ -5963,7 +5962,7 @@
       </c>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>164</v>
       </c>
@@ -5975,7 +5974,7 @@
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>165</v>
       </c>
@@ -5987,7 +5986,7 @@
       </c>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>166</v>
       </c>
@@ -5999,7 +5998,7 @@
       </c>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -6012,11 +6011,11 @@
       </c>
       <c r="E6" s="49"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>126</v>
       </c>

--- a/python/Inputs.xlsx
+++ b/python/Inputs.xlsx
@@ -1,39 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthor\Dropbox\PC\Desktop\Projects\personalFinances\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B686294-74AC-4ADB-8A28-7B2626FCF325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9C1DF5-A73A-4698-879D-D763968E4A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Home" sheetId="6" r:id="rId2"/>
-    <sheet name="Rent" sheetId="7" r:id="rId3"/>
-    <sheet name="Car" sheetId="5" r:id="rId4"/>
-    <sheet name="Food" sheetId="8" r:id="rId5"/>
-    <sheet name="Entertain" sheetId="11" r:id="rId6"/>
-    <sheet name="Personal Care" sheetId="10" r:id="rId7"/>
-    <sheet name="Health Care" sheetId="9" r:id="rId8"/>
-    <sheet name="Pet" sheetId="12" r:id="rId9"/>
-    <sheet name="Holiday" sheetId="13" r:id="rId10"/>
-    <sheet name="Charity" sheetId="14" r:id="rId11"/>
-    <sheet name="Education" sheetId="15" r:id="rId12"/>
-    <sheet name="Vacation" sheetId="16" r:id="rId13"/>
-    <sheet name="Major" sheetId="17" r:id="rId14"/>
-    <sheet name="Random" sheetId="18" r:id="rId15"/>
-    <sheet name="Accounts" sheetId="4" r:id="rId16"/>
-    <sheet name="Allocations" sheetId="2" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId18"/>
-    <sheet name="Earnings" sheetId="3" r:id="rId19"/>
+    <sheet name="Salary" sheetId="20" r:id="rId2"/>
+    <sheet name="Accounts" sheetId="4" r:id="rId3"/>
+    <sheet name="Allocations" sheetId="2" r:id="rId4"/>
+    <sheet name="Earnings" sheetId="3" r:id="rId5"/>
+    <sheet name="Loans" sheetId="21" r:id="rId6"/>
+    <sheet name="Home" sheetId="6" r:id="rId7"/>
+    <sheet name="Rent" sheetId="7" r:id="rId8"/>
+    <sheet name="Car" sheetId="5" r:id="rId9"/>
+    <sheet name="Food" sheetId="8" r:id="rId10"/>
+    <sheet name="Entertain" sheetId="11" r:id="rId11"/>
+    <sheet name="Personal Care" sheetId="10" r:id="rId12"/>
+    <sheet name="Health Care" sheetId="9" r:id="rId13"/>
+    <sheet name="Pet" sheetId="12" r:id="rId14"/>
+    <sheet name="Holiday" sheetId="13" r:id="rId15"/>
+    <sheet name="Charity" sheetId="14" r:id="rId16"/>
+    <sheet name="Education" sheetId="15" r:id="rId17"/>
+    <sheet name="Vacation" sheetId="16" r:id="rId18"/>
+    <sheet name="Major" sheetId="17" r:id="rId19"/>
+    <sheet name="Random" sheetId="18" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="143">
   <si>
     <t>Years</t>
   </si>
@@ -128,15 +130,9 @@
     <t>lowVolatility</t>
   </si>
   <si>
-    <t>valueGrowth</t>
-  </si>
-  <si>
     <t>indexFund</t>
   </si>
   <si>
-    <t>leverageFund</t>
-  </si>
-  <si>
     <t>trad401k</t>
   </si>
   <si>
@@ -146,15 +142,6 @@
     <t>college529</t>
   </si>
   <si>
-    <t>shortTermSavings</t>
-  </si>
-  <si>
-    <t>longTermSavings</t>
-  </si>
-  <si>
-    <t>spending</t>
-  </si>
-  <si>
     <t>SUMMARY</t>
   </si>
   <si>
@@ -212,9 +199,6 @@
     <t>monthly (low, avg, high)</t>
   </si>
   <si>
-    <t>Previous Balance</t>
-  </si>
-  <si>
     <t>Allocation</t>
   </si>
   <si>
@@ -239,12 +223,6 @@
     <t>yrs</t>
   </si>
   <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>Fast Food</t>
-  </si>
-  <si>
     <t>Work Food</t>
   </si>
   <si>
@@ -465,18 +443,58 @@
   </si>
   <si>
     <t>Retirement Age</t>
+  </si>
+  <si>
+    <t>Peacock</t>
+  </si>
+  <si>
+    <t>per person</t>
+  </si>
+  <si>
+    <t>Sewage</t>
+  </si>
+  <si>
+    <t>etfFund</t>
+  </si>
+  <si>
+    <t>Home Chef</t>
+  </si>
+  <si>
+    <t>% salary</t>
+  </si>
+  <si>
+    <t>cdBond</t>
+  </si>
+  <si>
+    <t>savings</t>
+  </si>
+  <si>
+    <t>SS Collection Age</t>
+  </si>
+  <si>
+    <t>Salary Option</t>
+  </si>
+  <si>
+    <t>Loan Year</t>
+  </si>
+  <si>
+    <t>Loan Amount</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +706,14 @@
       <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1066,7 +1092,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,21 +1228,12 @@
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1226,6 +1243,49 @@
     </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1592,36 +1652,39 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="55" customWidth="1"/>
-    <col min="4" max="6" width="11.21875" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="8.33203125" style="15"/>
+    <col min="1" max="1" width="24.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.28515625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="56"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1631,10 +1694,10 @@
       </c>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="45">
@@ -1644,15 +1707,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="19">
         <v>-2</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="54">
         <v>-4</v>
       </c>
       <c r="E6" s="28"/>
@@ -1665,16 +1728,17 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="45">
-        <v>60</v>
-      </c>
-      <c r="D7" s="17">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="D7" s="19">
+        <f>C7</f>
+        <v>62</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1686,15 +1750,18 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="45">
-        <v>22</v>
-      </c>
-      <c r="D8"/>
+        <v>65</v>
+      </c>
+      <c r="D8" s="19">
+        <f>C8</f>
+        <v>65</v>
+      </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -1705,37 +1772,35 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="45">
+        <v>22</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D11" s="20"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -1746,507 +1811,1643 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="12">
+        <v>119800</v>
+      </c>
+      <c r="D15" s="18">
+        <v>111435</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="42">
+        <v>98049</v>
+      </c>
+      <c r="D16" s="42">
+        <v>99027</v>
+      </c>
+      <c r="E16" s="42">
+        <v>114805</v>
+      </c>
+      <c r="F16" s="42">
+        <v>109016</v>
+      </c>
+      <c r="G16" s="42">
+        <v>119800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="42">
+        <v>88428</v>
+      </c>
+      <c r="D17" s="42">
+        <v>80354</v>
+      </c>
+      <c r="E17" s="42">
+        <v>94175</v>
+      </c>
+      <c r="F17" s="42">
+        <v>93107</v>
+      </c>
+      <c r="G17" s="42">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="57">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="57">
+        <v>2020</v>
+      </c>
+      <c r="E18" s="57">
+        <v>2021</v>
+      </c>
+      <c r="F18" s="57">
+        <v>2022</v>
+      </c>
+      <c r="G18" s="57">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="64">
+        <v>-0.02</v>
+      </c>
+      <c r="G19" s="64">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="64">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="45">
+        <v>3</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="12">
-        <v>119800</v>
-      </c>
-      <c r="D13" s="18">
-        <v>96000</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B23" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="42">
-        <v>98049</v>
-      </c>
-      <c r="D14" s="42">
-        <v>99027</v>
-      </c>
-      <c r="E14" s="42">
-        <v>114805</v>
-      </c>
-      <c r="F14" s="42">
-        <v>109016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D25" s="56">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="42">
-        <v>88428</v>
-      </c>
-      <c r="D15" s="42">
-        <v>80354</v>
-      </c>
-      <c r="E15" s="42">
-        <v>94175</v>
-      </c>
-      <c r="F15" s="42">
-        <v>93107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="45">
-        <v>3</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="59">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="59">
+      <c r="B26" s="49"/>
+      <c r="C26" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="D26" s="56">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="56"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="56"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="56"/>
+    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
     </row>
-    <row r="29" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="56"/>
+    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="20"/>
       <c r="D29" s="20"/>
     </row>
-    <row r="30" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="56"/>
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="20"/>
       <c r="D30" s="20"/>
     </row>
-    <row r="31" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="56"/>
+    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="20"/>
       <c r="D31" s="20"/>
     </row>
-    <row r="32" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="56"/>
+    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="20"/>
       <c r="D32" s="20"/>
     </row>
-    <row r="33" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="56"/>
+    <row r="33" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="20"/>
       <c r="D33" s="20"/>
     </row>
-    <row r="34" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="56"/>
+    <row r="34" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="20"/>
       <c r="D34" s="20"/>
     </row>
-    <row r="35" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="56"/>
+    <row r="35" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="20"/>
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="56"/>
+    <row r="36" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="20"/>
       <c r="D36" s="20"/>
     </row>
-    <row r="37" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="56"/>
+    <row r="37" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="20"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="56"/>
+    <row r="38" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="20"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="56"/>
+    <row r="39" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="20"/>
       <c r="D39" s="20"/>
     </row>
-    <row r="40" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="56"/>
+    <row r="40" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="20"/>
       <c r="D40" s="20"/>
     </row>
-    <row r="41" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="56"/>
+    <row r="41" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="20"/>
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="56"/>
+    <row r="42" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="20"/>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="56"/>
+    <row r="43" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="20"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="56"/>
+    <row r="44" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="20"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="56"/>
+    <row r="45" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="20"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="56"/>
+    <row r="46" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="20"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="56"/>
+    <row r="47" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="20"/>
       <c r="D47" s="20"/>
     </row>
-    <row r="48" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="56"/>
+    <row r="48" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="20"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="56"/>
+    <row r="49" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="20"/>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="56"/>
+    <row r="50" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="20"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="56"/>
+    <row r="51" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="20"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="56"/>
+    <row r="52" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="20"/>
       <c r="D52" s="20"/>
     </row>
-    <row r="53" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="56"/>
+    <row r="53" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="20"/>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="56"/>
+    <row r="54" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="20"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="56"/>
+    <row r="55" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="20"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="56"/>
+    <row r="56" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="20"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="56"/>
+    <row r="57" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="20"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="56"/>
+    <row r="58" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="20"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="56"/>
+    <row r="59" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="20"/>
       <c r="D59" s="20"/>
     </row>
-    <row r="60" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="56"/>
+    <row r="60" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="20"/>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="56"/>
+    <row r="61" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="20"/>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="56"/>
+    <row r="62" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="20"/>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="56"/>
+    <row r="63" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="20"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="56"/>
+    <row r="64" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="20"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="56"/>
+    <row r="65" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="20"/>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="56"/>
+    <row r="66" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="20"/>
       <c r="D66" s="20"/>
     </row>
-    <row r="67" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="56"/>
+    <row r="67" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="20"/>
       <c r="D67" s="20"/>
     </row>
-    <row r="68" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="56"/>
+    <row r="68" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="20"/>
       <c r="D68" s="20"/>
     </row>
-    <row r="69" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="56"/>
+    <row r="69" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="20"/>
       <c r="D69" s="20"/>
     </row>
-    <row r="70" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="56"/>
+    <row r="70" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="20"/>
       <c r="D70" s="20"/>
     </row>
-    <row r="71" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="56"/>
+    <row r="71" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="20"/>
       <c r="D71" s="20"/>
     </row>
-    <row r="72" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="56"/>
+    <row r="72" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="20"/>
       <c r="D72" s="20"/>
     </row>
-    <row r="73" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="56"/>
+    <row r="73" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="20"/>
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="56"/>
+    <row r="74" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="20"/>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="56"/>
+    <row r="75" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="20"/>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="56"/>
+    <row r="76" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="20"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="56"/>
+    <row r="77" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="20"/>
       <c r="D77" s="20"/>
     </row>
-    <row r="78" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="56"/>
+    <row r="78" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="20"/>
       <c r="D78" s="20"/>
     </row>
-    <row r="79" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="56"/>
+    <row r="79" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="20"/>
       <c r="D79" s="20"/>
     </row>
-    <row r="80" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="56"/>
+    <row r="80" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="20"/>
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="56"/>
+    <row r="81" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="20"/>
       <c r="D81" s="20"/>
     </row>
-    <row r="82" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="56"/>
+    <row r="82" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="20"/>
       <c r="D82" s="20"/>
     </row>
-    <row r="83" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="56"/>
+    <row r="83" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="20"/>
       <c r="D83" s="20"/>
     </row>
-    <row r="84" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="56"/>
+    <row r="84" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="20"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="56"/>
+    <row r="85" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="20"/>
       <c r="D85" s="20"/>
     </row>
-    <row r="86" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="56"/>
+    <row r="86" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="20"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="56"/>
+    <row r="87" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="20"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="56"/>
+    <row r="88" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="20"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="56"/>
+    <row r="89" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="20"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="56"/>
+    <row r="90" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="20"/>
       <c r="D90" s="20"/>
     </row>
-    <row r="91" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="56"/>
+    <row r="91" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="20"/>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="56"/>
+    <row r="92" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="20"/>
       <c r="D92" s="20"/>
     </row>
-    <row r="93" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="56"/>
+    <row r="93" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="20"/>
       <c r="D93" s="20"/>
     </row>
-    <row r="94" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="56"/>
+    <row r="94" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="20"/>
       <c r="D94" s="20"/>
     </row>
-    <row r="95" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="56"/>
+    <row r="95" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="20"/>
       <c r="D95" s="20"/>
     </row>
-    <row r="96" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="56"/>
+    <row r="96" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="20"/>
       <c r="D96" s="20"/>
     </row>
-    <row r="97" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="56"/>
+    <row r="97" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="20"/>
       <c r="D97" s="20"/>
     </row>
-    <row r="98" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="56"/>
+    <row r="98" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="20"/>
       <c r="D98" s="20"/>
     </row>
-    <row r="99" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="56"/>
+    <row r="99" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="20"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="56"/>
+    <row r="100" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="20"/>
       <c r="D100" s="20"/>
     </row>
-    <row r="101" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="56"/>
+    <row r="101" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="20"/>
       <c r="D101" s="20"/>
     </row>
-    <row r="102" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="56"/>
+    <row r="102" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="20"/>
       <c r="D102" s="20"/>
     </row>
-    <row r="103" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="56"/>
+    <row r="103" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="20"/>
       <c r="D103" s="20"/>
     </row>
-    <row r="104" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="56"/>
+    <row r="104" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="20"/>
       <c r="D104" s="20"/>
     </row>
-    <row r="105" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="56"/>
+    <row r="105" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="20"/>
       <c r="D105" s="20"/>
     </row>
-    <row r="106" spans="3:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="56"/>
+    <row r="106" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="20"/>
       <c r="D106" s="20"/>
     </row>
+    <row r="107" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+    </row>
+    <row r="108" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{26BAD9AE-5AFA-4434-8864-CD6555BD2211}">
+      <formula1>"SINGLE,SEPARATE,JOINT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:D14" xr:uid="{C53BA712-B7F8-46BD-9066-F9EA45049022}">
+      <formula1>"CUSTOM,STANDARD"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B8487-6DFC-49C1-8D36-5F31E0BAAB85}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:M100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12">
+        <v>500</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>200</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="62">
+        <v>50</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="61">
+        <f>(20*4+11)*4</f>
+        <v>364</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="62"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="62"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="62"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="62"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="62"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="62"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="62"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="62"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="62"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="62"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="62"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="62"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="62"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="62"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="62"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="62"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="62"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="62"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="62"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="62"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="62"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="62"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="62"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="62"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="62"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="62"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="62"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="62"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="62"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="62"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="62"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="62"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="62"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="62"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="62"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="62"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="62"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="62"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="62"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="62"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="62"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="62"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="62"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="62"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="62"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="62"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="60"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="62"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="60"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="62"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="62"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="62"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="60"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="62"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="60"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="62"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="60"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="62"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="60"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="62"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="60"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="62"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="60"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="62"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="60"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="62"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="60"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="62"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="60"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="62"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="60"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="62"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="60"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="62"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="60"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="62"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="60"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="62"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="60"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="62"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="60"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="62"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="60"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="62"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="60"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="62"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="60"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="62"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="60"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="62"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="60"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="62"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="60"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="62"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="60"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="62"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="60"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="62"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="60"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="62"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="60"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="62"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="60"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="62"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="60"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="62"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="60"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="62"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="60"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="62"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="60"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="62"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="60"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="62"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="60"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="62"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="60"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="62"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="60"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="62"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="60"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="62"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="60"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="62"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="60"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="62"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="60"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="62"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="60"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="62"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="60"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="62"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="60"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="62"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="60"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="62"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="60"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="62"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="60"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="62"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="60"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F17BD-3D74-4EC4-8440-AE3BD931E3E0}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12">
+        <v>65</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>50</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18">
+        <v>20</v>
+      </c>
+      <c r="D4" s="42">
+        <f>80/12</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E4" s="43">
+        <v>2</v>
+      </c>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18">
+        <v>5</v>
+      </c>
+      <c r="D5" s="42">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="E5" s="43">
+        <v>10</v>
+      </c>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="D6" s="42">
+        <v>12.5</v>
+      </c>
+      <c r="E6" s="43">
+        <v>52.083333333333336</v>
+      </c>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80A56B-A8E7-4876-AA03-58B13EB97F16}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12">
+        <v>50</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>30</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12">
+        <v>50</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>30</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9619A95F-7E98-400F-8F9A-C5237BD03C09}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3200</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="12">
+        <v>9200</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="40"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
+      <c r="D6" s="45">
+        <v>2</v>
+      </c>
+      <c r="E6" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="12">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12">
+        <v>250</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>25</v>
+      </c>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="40"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EC8FB3-02FD-435D-B914-7C2BC091879C}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12">
+        <v>350</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>75</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12">
+        <v>25</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="27">
+        <v>100</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB74594-BD38-45FF-80A6-CFC24DC4475F}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2257,135 +3458,136 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C2" s="12">
-        <v>300</v>
+        <f>500</f>
+        <v>500</v>
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C3" s="12">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="40"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C5" s="12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C6" s="12">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="40"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C8" s="27">
         <v>100</v>
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C9" s="27">
         <v>200</v>
       </c>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C10" s="27">
         <v>100</v>
       </c>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11" s="27">
         <v>150</v>
       </c>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="E13" s="29"/>
     </row>
@@ -2395,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864BA6EB-7E83-4114-B966-D925573D14C8}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2403,42 +3605,44 @@
   <dimension ref="A2:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="49"/>
+        <v>103</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>135</v>
+      </c>
       <c r="C2" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="E4" s="29"/>
     </row>
@@ -2448,7 +3652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D15979-A930-400D-9247-8AA007EF54B0}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2459,89 +3663,89 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C2" s="12">
         <v>50000</v>
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C3" s="12">
         <v>12000</v>
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C4" s="12">
         <v>2000</v>
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C5" s="12">
         <v>1500</v>
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="29"/>
     </row>
   </sheetData>
@@ -2550,7 +3754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A3623E-739B-4E92-BD1F-A85E8AE93729}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2558,85 +3762,97 @@
   <dimension ref="A2:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="49"/>
+        <v>97</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>131</v>
+      </c>
       <c r="C2" s="12">
+        <v>300</v>
+      </c>
+      <c r="D2" s="12">
         <v>800</v>
       </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="12">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12">
-        <v>400</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="D3" s="12">
+        <v>300</v>
+      </c>
+      <c r="E3" s="12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C4" s="12">
         <v>200</v>
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C5" s="12">
         <v>50</v>
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C6" s="12">
         <v>60</v>
       </c>
       <c r="E6" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="45">
         <v>3</v>
@@ -2648,16 +3864,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="E10" s="29"/>
     </row>
@@ -2667,7 +3883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F4B664-69DF-44D6-A7D5-A5BD33641629}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2678,60 +3894,60 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="29"/>
     </row>
   </sheetData>
@@ -2740,7 +3956,676 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7356A922-E8A8-48FA-A1B5-573C5ADA2096}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="66"/>
+    <col min="2" max="2" width="11.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="65">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>70000</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="69">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="67">
+        <v>75000</v>
+      </c>
+      <c r="C3" s="67"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="69">
+        <f t="shared" ref="A4:A26" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="67">
+        <v>80000</v>
+      </c>
+      <c r="C4" s="67"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="67">
+        <v>85000</v>
+      </c>
+      <c r="C5" s="67"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="67">
+        <v>90000</v>
+      </c>
+      <c r="C6" s="67"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="67">
+        <v>95000</v>
+      </c>
+      <c r="C7" s="67"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="67">
+        <v>400000</v>
+      </c>
+      <c r="C8" s="67"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="67">
+        <f ca="1">(1+(RANDBETWEEN(2,10)/100))*B8</f>
+        <v>412000</v>
+      </c>
+      <c r="C9" s="67"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="67">
+        <f t="shared" ref="B10:B22" ca="1" si="1">(1+(RANDBETWEEN(2,10)/100))*B9</f>
+        <v>428480</v>
+      </c>
+      <c r="C10" s="67"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="69">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>449904</v>
+      </c>
+      <c r="C11" s="67"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>472399.2</v>
+      </c>
+      <c r="C12" s="67"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="69">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>510191.13600000006</v>
+      </c>
+      <c r="C13" s="67"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>520394.95872000005</v>
+      </c>
+      <c r="C14" s="67"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="69">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>567230.50500480016</v>
+      </c>
+      <c r="C15" s="67"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="69">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>584247.42015494418</v>
+      </c>
+      <c r="C16" s="67"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="69">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>619302.26536424085</v>
+      </c>
+      <c r="C17" s="67"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="69">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>662653.42393973772</v>
+      </c>
+      <c r="C18" s="67"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="69">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>715665.6978549168</v>
+      </c>
+      <c r="C19" s="67"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="69">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>737135.66879056429</v>
+      </c>
+      <c r="C20" s="67"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="69">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>773992.45223009249</v>
+      </c>
+      <c r="C21" s="67"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>820431.99936389807</v>
+      </c>
+      <c r="C22" s="67"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="69">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="67">
+        <f t="shared" ref="B14:B26" ca="1" si="2">(1+(RANDBETWEEN(2,10)/100))*B22</f>
+        <v>894270.87930664897</v>
+      </c>
+      <c r="C23" s="67"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="69">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="67">
+        <f t="shared" ca="1" si="2"/>
+        <v>938984.42327198142</v>
+      </c>
+      <c r="C24" s="67"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="69">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="67">
+        <f t="shared" ca="1" si="2"/>
+        <v>967153.95597014087</v>
+      </c>
+      <c r="C25" s="67"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="69">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="67">
+        <f t="shared" ca="1" si="2"/>
+        <v>996168.57464924513</v>
+      </c>
+      <c r="C26" s="67"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="69"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="69"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="69"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="69"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="69"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="69"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="69"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="69"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="69"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="69"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="69"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="69"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="69"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="69"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="69"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="69"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="69"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="69"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="69"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="69"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="69"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="69"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="69"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="69"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="69"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="69"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="69"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="69"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="69"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="69"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="69"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="69"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="69"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="69"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="69"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="69"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="69"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="69"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="69"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="69"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="69"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="69"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="69"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="69"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="69"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="69"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="67"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="69"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="69"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="69"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="69"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="69"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="69"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="67"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="69"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="69"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="69"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E24977A-EA5F-4BA3-9B84-B620814A1B9D}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -2748,35 +4633,35 @@
   <dimension ref="A2:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" s="12">
         <v>25000</v>
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2786,28 +4671,28 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C4" s="45">
         <v>5</v>
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="E6" s="29"/>
     </row>
@@ -2817,46 +4702,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C49DA5D-4944-4CAF-B436-E7E5AFCEF148}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
       <c r="B2" s="21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>23</v>
       </c>
@@ -2864,13 +4749,13 @@
         <v>3000</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>24</v>
       </c>
@@ -2878,136 +4763,108 @@
         <v>2000</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B5" s="26">
         <v>3500</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="26">
         <v>3500</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="B7" s="26">
         <v>6000</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="26">
-        <f>54000+56000</f>
-        <v>110000</v>
+        <f>74000+56000</f>
+        <v>130000</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="26">
+        <v>28000</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="26">
-        <v>23000</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="B10" s="26">
         <v>7500</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D10" s="20">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B11" s="26">
-        <v>26000</v>
+        <v>80000</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="26">
-        <v>10000</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="26">
-        <v>23000</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3019,24 +4876,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CE992E-FAF4-40CB-8323-EE3FED99FC40}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -3048,109 +4905,109 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" s="22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" s="22">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E2" s="22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F2" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" s="22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D3" s="22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" s="22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="22">
+        <v>10</v>
+      </c>
+      <c r="C4" s="22">
+        <v>15</v>
+      </c>
+      <c r="D4" s="22">
+        <v>15</v>
+      </c>
+      <c r="E4" s="22">
+        <v>20</v>
+      </c>
+      <c r="F4" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="22">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>26</v>
-      </c>
       <c r="B5" s="22">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C5" s="22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="22">
+        <v>30</v>
+      </c>
+      <c r="C6" s="22">
+        <v>20</v>
+      </c>
+      <c r="D6" s="22">
+        <v>10</v>
+      </c>
+      <c r="E6" s="22">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="22">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>29</v>
       </c>
       <c r="B7" s="22">
         <v>0</v>
@@ -3168,9 +5025,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="22">
         <v>0</v>
@@ -3188,84 +5045,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9" s="22">
-        <v>4</v>
+        <f>B9*1.25</f>
+        <v>12.5</v>
       </c>
       <c r="D9" s="22">
-        <v>6</v>
-      </c>
-      <c r="E9" s="23">
+        <f>C9*1.25</f>
+        <v>15.625</v>
+      </c>
+      <c r="E9" s="22">
         <v>0</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B10" s="22">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="C10" s="22">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="D10" s="22">
-        <v>5</v>
-      </c>
-      <c r="E10" s="23">
-        <v>10</v>
-      </c>
-      <c r="F10" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="22">
-        <v>8</v>
-      </c>
-      <c r="C11" s="22">
-        <v>10</v>
-      </c>
-      <c r="D11" s="22">
-        <v>10</v>
-      </c>
-      <c r="E11" s="23">
-        <v>10</v>
-      </c>
-      <c r="F11" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="22">
-        <v>10</v>
-      </c>
-      <c r="C12" s="22">
-        <v>10</v>
-      </c>
-      <c r="D12" s="22">
-        <v>10</v>
-      </c>
-      <c r="E12" s="23">
-        <v>10</v>
-      </c>
-      <c r="F12" s="23">
-        <v>10</v>
+        <v>250</v>
+      </c>
+      <c r="E10" s="22">
+        <v>175</v>
+      </c>
+      <c r="F10" s="22">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3273,69 +5092,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0821E3-2E18-440A-8BFC-C88E0937883E}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6CA22D-5C95-47B0-8C30-F5F775E3CBBB}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -3345,8 +5121,8 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
       <c r="B2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3360,121 +5136,125 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="24">
         <v>0.04</v>
       </c>
-      <c r="C3" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="24">
         <v>0.06</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C8" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="52">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="24">
         <v>0.06</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="C9" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="C10" s="24">
         <v>0.08</v>
       </c>
-      <c r="C5" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0.08</v>
-      </c>
-      <c r="D8" s="53">
+      <c r="D10" s="52">
         <v>0.04</v>
       </c>
-      <c r="E8" s="53">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="24">
-        <v>0.08</v>
-      </c>
-      <c r="C9" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="53">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="53">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="24">
-        <v>0.06</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="E10" s="52">
         <v>0.04</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B11" s="24">
         <v>0.03</v>
@@ -3482,34 +5262,8 @@
       <c r="C11" s="24">
         <v>0.01</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="24">
-        <v>0.03</v>
-      </c>
-      <c r="C12" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="24">
-        <v>0.03</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3519,82 +5273,783 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA2E811-81FA-4F59-A9BB-547CEDB5B80F}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>-4</v>
+      </c>
+      <c r="B3" s="18">
+        <v>80000</v>
+      </c>
+      <c r="C3" s="8">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>80000</v>
+      </c>
+      <c r="C4" s="37">
+        <v>15</v>
+      </c>
+      <c r="D4" s="38">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>-2</v>
+      </c>
+      <c r="B5" s="18">
+        <v>80000</v>
+      </c>
+      <c r="C5" s="37">
+        <v>15</v>
+      </c>
+      <c r="D5" s="38">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>80000</v>
+      </c>
+      <c r="C6" s="37">
+        <v>15</v>
+      </c>
+      <c r="D6" s="38">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="38"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="38"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="38"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="38"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="38"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="38"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="38"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="38"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="38"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="38"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="38"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="38"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="38"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="38"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="38"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="38"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="38"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="38"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="38"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="38"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="38"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="38"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="38"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="38"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="38"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="38"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="38"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="38"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="38"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="38"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="38"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="38"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="38"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="38"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="38"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="38"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="38"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="38"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="38"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="38"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="38"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="38"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="38"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="38"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="38"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C228208F-908D-44CE-BB18-24656B27C42F}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
-      <c r="D1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J2" s="48"/>
-      <c r="K2" s="12">
-        <v>0</v>
+      <c r="K2" s="11">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>-2</v>
       </c>
@@ -3617,23 +6072,30 @@
         <v>2.7E-2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="11">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3"/>
+        <v>44</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="12">
+        <v>500</v>
+      </c>
+      <c r="L3" s="12">
+        <v>3000</v>
+      </c>
+      <c r="M3" s="12">
+        <v>15000</v>
+      </c>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>18</v>
+        <f>B3</f>
+        <v>17</v>
       </c>
       <c r="B4" s="19">
-        <f>A4+8</f>
-        <v>26</v>
+        <f>A4+10</f>
+        <v>27</v>
       </c>
       <c r="C4" s="18">
         <v>850000</v>
@@ -3651,28 +6113,24 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K4" s="12">
-        <v>500</v>
-      </c>
-      <c r="L4" s="12">
-        <v>3000</v>
-      </c>
-      <c r="M4" s="12">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>33</v>
+        <f>B4</f>
+        <v>27</v>
       </c>
       <c r="B5" s="19">
-        <f>A5+7</f>
-        <v>40</v>
+        <f>45</f>
+        <v>45</v>
       </c>
       <c r="C5" s="18">
         <v>1250000</v>
@@ -3690,18 +6148,18 @@
         <v>0.03</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="12">
-        <v>1000</v>
+        <v>4</v>
+      </c>
+      <c r="K5" s="27">
+        <v>50</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="29"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -3709,19 +6167,19 @@
       <c r="E6" s="38"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
-      <c r="I6" s="3" t="s">
-        <v>56</v>
+      <c r="I6" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="27">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="M6"/>
       <c r="N6" s="29"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
@@ -3730,18 +6188,18 @@
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
       <c r="I7" s="32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J7" s="49" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="27">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="M7"/>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
@@ -3750,18 +6208,18 @@
       <c r="F8" s="37"/>
       <c r="G8" s="38"/>
       <c r="I8" s="32" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="J8" s="49" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="27">
-        <v>50</v>
-      </c>
-      <c r="M8"/>
+        <f>250/4</f>
+        <v>62.5</v>
+      </c>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
@@ -3770,7 +6228,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
@@ -3779,13 +6237,13 @@
       <c r="F10" s="37"/>
       <c r="G10" s="38"/>
       <c r="I10" s="32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -3794,7 +6252,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
@@ -3803,7 +6261,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
@@ -3812,7 +6270,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
@@ -3821,16 +6279,16 @@
       <c r="F14" s="37"/>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="36"/>
     </row>
   </sheetData>
@@ -3839,7 +6297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624D77-2870-4555-B62D-733EBDFE0F64}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -3847,71 +6305,73 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I2" sqref="I2:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
-      <c r="D1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G1" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="48"/>
+      <c r="J2" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <f>110+120</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
@@ -3920,17 +6380,22 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
       <c r="I3" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J3" s="50" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="K3" s="12">
-        <f>110+120</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="L3" s="12">
+        <v>75</v>
+      </c>
+      <c r="M3" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="19"/>
       <c r="C4" s="18"/>
@@ -3939,22 +6404,16 @@
       <c r="F4" s="37"/>
       <c r="G4" s="38"/>
       <c r="I4" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="K4" s="12">
-        <v>25</v>
-      </c>
-      <c r="L4" s="12">
-        <v>75</v>
-      </c>
-      <c r="M4" s="12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="19"/>
       <c r="C5" s="18"/>
@@ -3963,16 +6422,16 @@
       <c r="F5" s="37"/>
       <c r="G5" s="38"/>
       <c r="I5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K5" s="27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -3980,17 +6439,8 @@
       <c r="E6" s="34"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
-      <c r="I6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
@@ -3998,8 +6448,14 @@
       <c r="E7" s="34"/>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
@@ -4007,14 +6463,8 @@
       <c r="E8" s="34"/>
       <c r="F8" s="37"/>
       <c r="G8" s="38"/>
-      <c r="I8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
@@ -4023,7 +6473,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
@@ -4032,7 +6482,7 @@
       <c r="F10" s="37"/>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -4041,7 +6491,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
@@ -4050,7 +6500,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
@@ -4059,7 +6509,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
@@ -4068,946 +6518,17 @@
       <c r="F14" s="37"/>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1794CECF-4906-4EF5-BFE7-0830CAF2B342}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:M18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>-5</v>
-      </c>
-      <c r="B3" s="19">
-        <v>3</v>
-      </c>
-      <c r="C3" s="18">
-        <v>19500</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="F3" s="8">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="12">
-        <f>110+120</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>-5</v>
-      </c>
-      <c r="B4" s="19">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18">
-        <v>23500</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F4" s="37">
-        <v>5</v>
-      </c>
-      <c r="G4" s="38">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="12">
-        <v>25</v>
-      </c>
-      <c r="L4" s="12">
-        <v>75</v>
-      </c>
-      <c r="M4" s="12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19">
-        <f>A5+7</f>
-        <v>10</v>
-      </c>
-      <c r="C5" s="18">
-        <v>25000</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F5" s="37">
-        <v>5</v>
-      </c>
-      <c r="G5" s="38">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>3</v>
-      </c>
-      <c r="B6" s="19">
-        <f>A6+8</f>
-        <v>11</v>
-      </c>
-      <c r="C6" s="18">
-        <v>30000</v>
-      </c>
-      <c r="D6" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F6" s="37">
-        <v>5</v>
-      </c>
-      <c r="G6" s="38">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="27">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <f>B5+1</f>
-        <v>11</v>
-      </c>
-      <c r="B7" s="19">
-        <f>A7+7</f>
-        <v>18</v>
-      </c>
-      <c r="C7" s="18">
-        <v>30000</v>
-      </c>
-      <c r="D7" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F7" s="37">
-        <v>5</v>
-      </c>
-      <c r="G7" s="38">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <f>B6+1</f>
-        <v>12</v>
-      </c>
-      <c r="B8" s="19">
-        <f>A8+8</f>
-        <v>20</v>
-      </c>
-      <c r="C8" s="18">
-        <v>35000</v>
-      </c>
-      <c r="D8" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F8" s="37">
-        <v>5</v>
-      </c>
-      <c r="G8" s="38">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>21</v>
-      </c>
-      <c r="B9" s="19">
-        <f>A9+6</f>
-        <v>27</v>
-      </c>
-      <c r="C9" s="18">
-        <v>22500</v>
-      </c>
-      <c r="D9" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F9" s="37">
-        <v>5</v>
-      </c>
-      <c r="G9" s="38">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <f>B7+1</f>
-        <v>19</v>
-      </c>
-      <c r="B10" s="19">
-        <f>A10+8</f>
-        <v>27</v>
-      </c>
-      <c r="C10" s="18">
-        <v>40000</v>
-      </c>
-      <c r="D10" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F10" s="37">
-        <v>5</v>
-      </c>
-      <c r="G10" s="38">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>23</v>
-      </c>
-      <c r="B11" s="19">
-        <f>A11+6</f>
-        <v>29</v>
-      </c>
-      <c r="C11" s="18">
-        <v>22500</v>
-      </c>
-      <c r="D11" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F11" s="37">
-        <v>5</v>
-      </c>
-      <c r="G11" s="38">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <f>B8+1</f>
-        <v>21</v>
-      </c>
-      <c r="B12" s="19">
-        <f>A12+8</f>
-        <v>29</v>
-      </c>
-      <c r="C12" s="18">
-        <v>40000</v>
-      </c>
-      <c r="D12" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F12" s="37">
-        <v>5</v>
-      </c>
-      <c r="G12" s="38">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <f>B10+1</f>
-        <v>28</v>
-      </c>
-      <c r="B13" s="19">
-        <f>A13+8</f>
-        <v>36</v>
-      </c>
-      <c r="C13" s="18">
-        <v>45000</v>
-      </c>
-      <c r="D13" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F13" s="37">
-        <v>5</v>
-      </c>
-      <c r="G13" s="38">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <f>B12+1</f>
-        <v>30</v>
-      </c>
-      <c r="B14" s="19">
-        <f>A14+8</f>
-        <v>38</v>
-      </c>
-      <c r="C14" s="18">
-        <v>45000</v>
-      </c>
-      <c r="D14" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="34">
-        <v>-0.15</v>
-      </c>
-      <c r="F14" s="37">
-        <v>5</v>
-      </c>
-      <c r="G14" s="38">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B8487-6DFC-49C1-8D36-5F31E0BAAB85}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="12">
-        <v>700</v>
-      </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12">
-        <v>200</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12">
-        <v>25</v>
-      </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12">
-        <v>20</v>
-      </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="27">
-        <v>50</v>
-      </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F17BD-3D74-4EC4-8440-AE3BD931E3E0}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="12">
-        <v>65</v>
-      </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12">
-        <v>50</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="18">
-        <v>20</v>
-      </c>
-      <c r="D4" s="42">
-        <f>80/12</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="M4" s="43"/>
-    </row>
-    <row r="5" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="18">
-        <v>5</v>
-      </c>
-      <c r="D5" s="42">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="E5" s="43">
-        <v>10</v>
-      </c>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18">
-        <v>18.333333333333332</v>
-      </c>
-      <c r="D6" s="42">
-        <v>12.5</v>
-      </c>
-      <c r="E6" s="43">
-        <v>52.083333333333336</v>
-      </c>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80A56B-A8E7-4876-AA03-58B13EB97F16}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="12">
-        <v>100</v>
-      </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12">
-        <v>50</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12">
-        <v>60</v>
-      </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12">
-        <v>30</v>
-      </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="40"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9619A95F-7E98-400F-8F9A-C5237BD03C09}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:M12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="12">
-        <v>9100</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="40"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
-      <c r="D6" s="45">
-        <v>2</v>
-      </c>
-      <c r="E6" s="45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="12">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12">
-        <v>250</v>
-      </c>
-      <c r="E7" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12">
-        <v>30</v>
-      </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="40"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5016,101 +6537,639 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EC8FB3-02FD-435D-B914-7C2BC091879C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1794CECF-4906-4EF5-BFE7-0830CAF2B342}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:M8"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="29"/>
+    <col min="10" max="10" width="21.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12">
-        <v>350</v>
-      </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="K2" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>-5</v>
+      </c>
+      <c r="B3" s="19">
+        <f ca="1">A3+RANDBETWEEN(5,9)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="18">
+        <v>23500</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="12">
+        <v>25</v>
+      </c>
+      <c r="L3" s="12">
+        <v>75</v>
+      </c>
+      <c r="M3" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="19">
+        <f t="shared" ref="B4:B14" ca="1" si="0">A4+RANDBETWEEN(5,9)</f>
         <v>4</v>
       </c>
-      <c r="C3" s="12">
-        <v>75</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="49" t="s">
+      <c r="C4" s="18">
+        <v>32000</v>
+      </c>
+      <c r="D4" s="34">
+        <f>10000/C4</f>
+        <v>0.3125</v>
+      </c>
+      <c r="E4" s="34">
+        <v>-0.15</v>
+      </c>
+      <c r="F4" s="37">
         <v>4</v>
       </c>
-      <c r="C4" s="12">
-        <v>25</v>
-      </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="G4" s="38">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="K4" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <f ca="1">IF(B3&lt;Inputs!$C$3,B3,"")</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="18">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="34">
+        <f>IF(ISNUMBER(C5),20%,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="34">
+        <f>IF(ISNUMBER(D5),-15%,"")</f>
+        <v>-0.15</v>
+      </c>
+      <c r="F5" s="63">
+        <f>IF(ISNUMBER(E5),5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="38">
+        <f>IF(ISNUMBER(F5),1.9%,"")</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27">
-        <v>100</v>
-      </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="29"/>
+      <c r="K5" s="27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <f ca="1">IF(B4&lt;Inputs!$C$3,B4,"")</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="18">
+        <v>30000</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" ref="D6:D20" si="1">IF(ISNUMBER(C6),20%,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" ref="E6:E20" si="2">IF(ISNUMBER(D6),-15%,"")</f>
+        <v>-0.15</v>
+      </c>
+      <c r="F6" s="63">
+        <f t="shared" ref="F6:F20" si="3">IF(ISNUMBER(E6),5,"")</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" ref="G6:G20" si="4">IF(ISNUMBER(F6),1.9%,"")</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <f ca="1">IF(B5&lt;Inputs!$C$3,B5,"")</f>
+        <v>12</v>
+      </c>
+      <c r="B7" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="18">
+        <v>35000</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F7" s="63">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="38">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <f ca="1">IF(B6&lt;Inputs!$C$3,B6,"")</f>
+        <v>10</v>
+      </c>
+      <c r="B8" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="18">
+        <v>22500</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F8" s="63">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="38">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <f ca="1">IF(B7&lt;Inputs!$C$3,B7,"")</f>
+        <v>17</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="18">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F9" s="63">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <f ca="1">IF(B8&lt;Inputs!$C$3,B8,"")</f>
+        <v>17</v>
+      </c>
+      <c r="B10" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C10" s="18">
+        <v>22500</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F10" s="63">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="38">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <f ca="1">IF(B9&lt;Inputs!$C$3,B9,"")</f>
+        <v>24</v>
+      </c>
+      <c r="B11" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="18">
+        <f ca="1">IF(ISNUMBER(B11),RANDBETWEEN(40000,60000),"")</f>
+        <v>51219</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F11" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <f ca="1">IF(B10&lt;Inputs!$C$3,B10,"")</f>
+        <v>26</v>
+      </c>
+      <c r="B12" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" ref="C12:C20" ca="1" si="5">IF(ISNUMBER(B12),RANDBETWEEN(40000,60000),"")</f>
+        <v>43537</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F12" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <f ca="1">IF(B11&lt;Inputs!$C$3,B11,"")</f>
+        <v>30</v>
+      </c>
+      <c r="B13" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>52274</v>
+      </c>
+      <c r="D13" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F13" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <f ca="1">IF(B12&lt;Inputs!$C$3,B12,"")</f>
+        <v>35</v>
+      </c>
+      <c r="B14" s="19">
+        <f ca="1">IF(ISNUMBER(A14),A14+RANDBETWEEN(5,9),"")</f>
+        <v>44</v>
+      </c>
+      <c r="C14" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>54822</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F14" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <f ca="1">IF(B13&lt;Inputs!$C$3,B13,"")</f>
+        <v>35</v>
+      </c>
+      <c r="B15" s="19">
+        <f ca="1">IF(ISNUMBER(A15),A15+RANDBETWEEN(5,9),"")</f>
+        <v>43</v>
+      </c>
+      <c r="C15" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>47141</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.15</v>
+      </c>
+      <c r="F15" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="str">
+        <f ca="1">IF(B14&lt;Inputs!$C$3,B14,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="19" t="str">
+        <f ca="1">IF(ISNUMBER(A16),A16+RANDBETWEEN(5,9),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="D16" s="34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E16" s="34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F16" s="63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G16" s="38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="str">
+        <f ca="1">IF(B15&lt;Inputs!$C$3,B15,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f ca="1">IF(ISNUMBER(A17),A17+RANDBETWEEN(5,9),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="D17" s="34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E17" s="34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F17" s="63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G17" s="38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="str">
+        <f ca="1">IF(B16&lt;Inputs!$C$3,B16,"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="19" t="str">
+        <f ca="1">IF(ISNUMBER(A18),A18+RANDBETWEEN(5,9),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="D18" s="34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E18" s="34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F18" s="63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G18" s="38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="str">
+        <f ca="1">IF(B17&lt;Inputs!$C$3,B17,"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="19" t="str">
+        <f ca="1">IF(ISNUMBER(A19),A19+RANDBETWEEN(5,9),"")</f>
+        <v/>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="D19" s="34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" s="34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F19" s="63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G19" s="38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="str">
+        <f ca="1">IF(B18&lt;Inputs!$C$3,B18,"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="19" t="str">
+        <f ca="1">IF(ISNUMBER(A20),A20+RANDBETWEEN(5,9),"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="D20" s="34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" s="34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F20" s="63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G20" s="38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
